--- a/src/Bangus Distribution_Data.xlsx
+++ b/src/Bangus Distribution_Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="132">
   <si>
     <t>Date Distributed</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Davao City</t>
+  </si>
+  <si>
+    <t>Davao del Sur</t>
   </si>
   <si>
     <t>13/12/2023</t>
@@ -2446,8 +2449,8 @@
       <c r="D65" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>16</v>
+      <c r="E65" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F65" s="14">
         <v>8000.0</v>
@@ -2461,10 +2464,10 @@
     </row>
     <row r="66">
       <c r="A66" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>33</v>
@@ -2487,16 +2490,16 @@
     </row>
     <row r="67">
       <c r="A67" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>11</v>
@@ -2513,10 +2516,10 @@
     </row>
     <row r="68">
       <c r="A68" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>48</v>
@@ -2539,10 +2542,10 @@
     </row>
     <row r="69">
       <c r="A69" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>48</v>
@@ -2565,10 +2568,10 @@
     </row>
     <row r="70">
       <c r="A70" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>48</v>
@@ -2591,19 +2594,19 @@
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F71" s="7">
         <v>30000.0</v>
@@ -2617,19 +2620,19 @@
     </row>
     <row r="72">
       <c r="A72" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="F72" s="7">
         <v>50000.0</v>
@@ -2643,19 +2646,19 @@
     </row>
     <row r="73">
       <c r="A73" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F73" s="7">
         <v>50000.0</v>
@@ -2669,13 +2672,13 @@
     </row>
     <row r="74">
       <c r="A74" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>22</v>
@@ -2695,13 +2698,13 @@
     </row>
     <row r="75">
       <c r="A75" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>28</v>
@@ -2721,19 +2724,19 @@
     </row>
     <row r="76">
       <c r="A76" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F76" s="7">
         <v>50000.0</v>
@@ -2747,7 +2750,7 @@
     </row>
     <row r="77">
       <c r="A77" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>102</v>
@@ -2758,8 +2761,8 @@
       <c r="D77" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>16</v>
+      <c r="E77" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F77" s="7">
         <v>2000.0</v>
